--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Adipoq-Adipor2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,25 +79,25 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Adipoq</t>
+  </si>
+  <si>
+    <t>Adipor2</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Adipoq</t>
-  </si>
-  <si>
-    <t>Adipor2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -549,10 +549,10 @@
         <v>0.166658</v>
       </c>
       <c r="I2">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.0314025</v>
+        <v>19.4805625</v>
       </c>
       <c r="N2">
-        <v>44.062805</v>
+        <v>38.961125</v>
       </c>
       <c r="O2">
-        <v>0.3421271637081751</v>
+        <v>0.276241255764996</v>
       </c>
       <c r="P2">
-        <v>0.2669855274335372</v>
+        <v>0.2084770529122116</v>
       </c>
       <c r="Q2">
-        <v>1.223903159281666</v>
+        <v>1.082197195041666</v>
       </c>
       <c r="R2">
-        <v>7.34341895569</v>
+        <v>6.493183170249999</v>
       </c>
       <c r="S2">
-        <v>0.1543264689463875</v>
+        <v>0.276241255764996</v>
       </c>
       <c r="T2">
-        <v>0.1204316350155453</v>
+        <v>0.2084770529122116</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.166658</v>
       </c>
       <c r="I3">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>14.953281</v>
       </c>
       <c r="O3">
-        <v>0.07740350947791218</v>
+        <v>0.07068093509871451</v>
       </c>
       <c r="P3">
-        <v>0.09060498110928006</v>
+        <v>0.08001349946255835</v>
       </c>
       <c r="Q3">
         <v>0.2768982116553333</v>
@@ -641,10 +641,10 @@
         <v>2.492083904898</v>
       </c>
       <c r="S3">
-        <v>0.03491511802896049</v>
+        <v>0.07068093509871451</v>
       </c>
       <c r="T3">
-        <v>0.04087002812637299</v>
+        <v>0.08001349946255835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -673,10 +673,10 @@
         <v>0.166658</v>
       </c>
       <c r="I4">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.718521666666666</v>
+        <v>11.85343433333333</v>
       </c>
       <c r="N4">
-        <v>26.155565</v>
+        <v>35.560303</v>
       </c>
       <c r="O4">
-        <v>0.1353905222123257</v>
+        <v>0.1680858848592241</v>
       </c>
       <c r="P4">
-        <v>0.1584819059260336</v>
+        <v>0.1902795971652584</v>
       </c>
       <c r="Q4">
-        <v>0.4843371279744444</v>
+        <v>0.6584898863748889</v>
       </c>
       <c r="R4">
-        <v>4.35903415177</v>
+        <v>5.926408977374001</v>
       </c>
       <c r="S4">
-        <v>0.06107185701179212</v>
+        <v>0.1680858848592241</v>
       </c>
       <c r="T4">
-        <v>0.07148790136500323</v>
+        <v>0.1902795971652584</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>0.166658</v>
       </c>
       <c r="I5">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.116505</v>
+        <v>5.195277</v>
       </c>
       <c r="N5">
-        <v>12.23301</v>
+        <v>10.390554</v>
       </c>
       <c r="O5">
-        <v>0.09498362655109549</v>
+        <v>0.0736708625598979</v>
       </c>
       <c r="P5">
-        <v>0.07412230399198905</v>
+        <v>0.05559880717112743</v>
       </c>
       <c r="Q5">
-        <v>0.33978816343</v>
+        <v>0.288611491422</v>
       </c>
       <c r="R5">
-        <v>2.03872898058</v>
+        <v>1.731668948532</v>
       </c>
       <c r="S5">
-        <v>0.04284514428633963</v>
+        <v>0.0736708625598979</v>
       </c>
       <c r="T5">
-        <v>0.03343503427576878</v>
+        <v>0.05559880717112743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -797,10 +797,10 @@
         <v>0.166658</v>
       </c>
       <c r="I6">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.477201</v>
+        <v>22.15705666666667</v>
       </c>
       <c r="N6">
-        <v>34.431603</v>
+        <v>66.47117</v>
       </c>
       <c r="O6">
-        <v>0.1782302431921268</v>
+        <v>0.3141948882459721</v>
       </c>
       <c r="P6">
-        <v>0.2086281090669821</v>
+        <v>0.355680530919644</v>
       </c>
       <c r="Q6">
-        <v>0.6375891214193334</v>
+        <v>1.230883583317778</v>
       </c>
       <c r="R6">
-        <v>5.738302092774</v>
+        <v>11.07795224986</v>
       </c>
       <c r="S6">
-        <v>0.08039596678958351</v>
+        <v>0.3141948882459721</v>
       </c>
       <c r="T6">
-        <v>0.09410781373306024</v>
+        <v>0.355680530919644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -859,10 +859,10 @@
         <v>0.166658</v>
       </c>
       <c r="I7">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0.4510792632590367</v>
+        <v>1</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,400 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.06730466666667</v>
+        <v>6.849347999999999</v>
       </c>
       <c r="N7">
-        <v>33.201914</v>
+        <v>20.548044</v>
       </c>
       <c r="O7">
-        <v>0.1718649348583648</v>
+        <v>0.09712617347119537</v>
       </c>
       <c r="P7">
-        <v>0.2011771724721779</v>
+        <v>0.1099505123692001</v>
       </c>
       <c r="Q7">
-        <v>0.6148182870457778</v>
+        <v>0.3804995463279999</v>
       </c>
       <c r="R7">
-        <v>5.533364583412</v>
+        <v>3.424495916952</v>
       </c>
       <c r="S7">
-        <v>0.07752470819597355</v>
+        <v>0.09712617347119537</v>
       </c>
       <c r="T7">
-        <v>0.09074685074328619</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H8">
-        <v>0.202807</v>
-      </c>
-      <c r="I8">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J8">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>22.0314025</v>
-      </c>
-      <c r="N8">
-        <v>44.062805</v>
-      </c>
-      <c r="O8">
-        <v>0.3421271637081751</v>
-      </c>
-      <c r="P8">
-        <v>0.2669855274335372</v>
-      </c>
-      <c r="Q8">
-        <v>1.489374215605833</v>
-      </c>
-      <c r="R8">
-        <v>8.936245293634999</v>
-      </c>
-      <c r="S8">
-        <v>0.1878006947617876</v>
-      </c>
-      <c r="T8">
-        <v>0.1465538924179919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H9">
-        <v>0.202807</v>
-      </c>
-      <c r="I9">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J9">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>4.984427</v>
-      </c>
-      <c r="N9">
-        <v>14.953281</v>
-      </c>
-      <c r="O9">
-        <v>0.07740350947791218</v>
-      </c>
-      <c r="P9">
-        <v>0.09060498110928006</v>
-      </c>
-      <c r="Q9">
-        <v>0.3369588955296667</v>
-      </c>
-      <c r="R9">
-        <v>3.032630059767</v>
-      </c>
-      <c r="S9">
-        <v>0.04248839144895169</v>
-      </c>
-      <c r="T9">
-        <v>0.04973495298290707</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.202807</v>
-      </c>
-      <c r="I10">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J10">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>8.718521666666666</v>
-      </c>
-      <c r="N10">
-        <v>26.155565</v>
-      </c>
-      <c r="O10">
-        <v>0.1353905222123257</v>
-      </c>
-      <c r="P10">
-        <v>0.1584819059260336</v>
-      </c>
-      <c r="Q10">
-        <v>0.5893924078838888</v>
-      </c>
-      <c r="R10">
-        <v>5.304531670955</v>
-      </c>
-      <c r="S10">
-        <v>0.07431866520053358</v>
-      </c>
-      <c r="T10">
-        <v>0.08699400456103043</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.202807</v>
-      </c>
-      <c r="I11">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J11">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>6.116505</v>
-      </c>
-      <c r="N11">
-        <v>12.23301</v>
-      </c>
-      <c r="O11">
-        <v>0.09498362655109549</v>
-      </c>
-      <c r="P11">
-        <v>0.07412230399198905</v>
-      </c>
-      <c r="Q11">
-        <v>0.413490009845</v>
-      </c>
-      <c r="R11">
-        <v>2.48094005907</v>
-      </c>
-      <c r="S11">
-        <v>0.05213848226475586</v>
-      </c>
-      <c r="T11">
-        <v>0.04068726971622028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H12">
-        <v>0.202807</v>
-      </c>
-      <c r="I12">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J12">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>11.477201</v>
-      </c>
-      <c r="N12">
-        <v>34.431603</v>
-      </c>
-      <c r="O12">
-        <v>0.1782302431921268</v>
-      </c>
-      <c r="P12">
-        <v>0.2086281090669821</v>
-      </c>
-      <c r="Q12">
-        <v>0.7758855677356667</v>
-      </c>
-      <c r="R12">
-        <v>6.982970109621</v>
-      </c>
-      <c r="S12">
-        <v>0.09783427640254332</v>
-      </c>
-      <c r="T12">
-        <v>0.1145202953339218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.06760233333333333</v>
-      </c>
-      <c r="H13">
-        <v>0.202807</v>
-      </c>
-      <c r="I13">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="J13">
-        <v>0.5489207367409633</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>11.06730466666667</v>
-      </c>
-      <c r="N13">
-        <v>33.201914</v>
-      </c>
-      <c r="O13">
-        <v>0.1718649348583648</v>
-      </c>
-      <c r="P13">
-        <v>0.2011771724721779</v>
-      </c>
-      <c r="Q13">
-        <v>0.7481756191775556</v>
-      </c>
-      <c r="R13">
-        <v>6.733580572598</v>
-      </c>
-      <c r="S13">
-        <v>0.09434022666239129</v>
-      </c>
-      <c r="T13">
-        <v>0.1104303217288918</v>
+        <v>0.1099505123692001</v>
       </c>
     </row>
   </sheetData>
